--- a/Tabela pinos.xlsx
+++ b/Tabela pinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Pino</t>
   </si>
@@ -47,12 +47,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>IO34</t>
-  </si>
-  <si>
-    <t>IO35</t>
-  </si>
-  <si>
     <t>IO32</t>
   </si>
   <si>
@@ -185,10 +179,40 @@
     <t>resistência casa de banho</t>
   </si>
   <si>
-    <t>IO36</t>
-  </si>
-  <si>
-    <t>IO39</t>
+    <t>porta 0</t>
+  </si>
+  <si>
+    <t>porta 1</t>
+  </si>
+  <si>
+    <t>porta 2</t>
+  </si>
+  <si>
+    <t>porta 3</t>
+  </si>
+  <si>
+    <t>porta 4</t>
+  </si>
+  <si>
+    <t>porta 5</t>
+  </si>
+  <si>
+    <t>porta 6</t>
+  </si>
+  <si>
+    <t>porta 7</t>
+  </si>
+  <si>
+    <t>I36</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I34</t>
+  </si>
+  <si>
+    <t>I35</t>
   </si>
 </sst>
 </file>
@@ -254,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,6 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -566,7 +593,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -580,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -590,7 +617,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -600,7 +627,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -610,157 +637,165 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -770,193 +805,212 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -965,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -975,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -985,7 +1039,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -995,7 +1049,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1005,7 +1059,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1015,7 +1069,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1031,6 +1085,11 @@
       <c r="D39" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Tabela pinos.xlsx
+++ b/Tabela pinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Pino</t>
   </si>
@@ -146,73 +146,109 @@
     <t>output</t>
   </si>
   <si>
+    <t>servo 2</t>
+  </si>
+  <si>
+    <t>servo 3</t>
+  </si>
+  <si>
+    <t>servo 4</t>
+  </si>
+  <si>
+    <t>servo 5</t>
+  </si>
+  <si>
+    <t>motor 1</t>
+  </si>
+  <si>
+    <t>motor 2</t>
+  </si>
+  <si>
+    <t>motor 3</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>resistência casa de banho</t>
+  </si>
+  <si>
+    <t>porta 0</t>
+  </si>
+  <si>
+    <t>porta 1</t>
+  </si>
+  <si>
+    <t>porta 2</t>
+  </si>
+  <si>
+    <t>porta 3</t>
+  </si>
+  <si>
+    <t>porta 4</t>
+  </si>
+  <si>
+    <t>porta 5</t>
+  </si>
+  <si>
+    <t>porta 6</t>
+  </si>
+  <si>
+    <t>porta 7</t>
+  </si>
+  <si>
+    <t>I36</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I34</t>
+  </si>
+  <si>
+    <t>I35</t>
+  </si>
+  <si>
+    <t>latchPin</t>
+  </si>
+  <si>
+    <t>clockPin</t>
+  </si>
+  <si>
+    <t>dataPin</t>
+  </si>
+  <si>
+    <t>shift Register</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>sala - cozinha</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>cozinha</t>
+  </si>
+  <si>
+    <t>quarto</t>
+  </si>
+  <si>
+    <t>banho 1</t>
+  </si>
+  <si>
+    <t>banho 2</t>
+  </si>
+  <si>
+    <t>cortinas</t>
+  </si>
+  <si>
+    <t>resistência quarto</t>
+  </si>
+  <si>
     <t>servo 1</t>
-  </si>
-  <si>
-    <t>servo 2</t>
-  </si>
-  <si>
-    <t>servo 3</t>
-  </si>
-  <si>
-    <t>servo 4</t>
-  </si>
-  <si>
-    <t>servo 5</t>
-  </si>
-  <si>
-    <t>motor 1</t>
-  </si>
-  <si>
-    <t>motor 2</t>
-  </si>
-  <si>
-    <t>motor 3</t>
-  </si>
-  <si>
-    <t>placa</t>
-  </si>
-  <si>
-    <t>resistência quarto</t>
-  </si>
-  <si>
-    <t>resistência casa de banho</t>
-  </si>
-  <si>
-    <t>porta 0</t>
-  </si>
-  <si>
-    <t>porta 1</t>
-  </si>
-  <si>
-    <t>porta 2</t>
-  </si>
-  <si>
-    <t>porta 3</t>
-  </si>
-  <si>
-    <t>porta 4</t>
-  </si>
-  <si>
-    <t>porta 5</t>
-  </si>
-  <si>
-    <t>porta 6</t>
-  </si>
-  <si>
-    <t>porta 7</t>
-  </si>
-  <si>
-    <t>I36</t>
-  </si>
-  <si>
-    <t>I39</t>
-  </si>
-  <si>
-    <t>I34</t>
-  </si>
-  <si>
-    <t>I35</t>
   </si>
 </sst>
 </file>
@@ -278,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,7 +331,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -590,10 +630,12 @@
     <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -607,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -617,7 +659,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -627,7 +669,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -637,12 +679,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
@@ -651,12 +693,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
@@ -665,31 +707,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -699,14 +737,17 @@
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -716,12 +757,10 @@
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -732,10 +771,13 @@
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -746,10 +788,11 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -760,10 +803,11 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -773,14 +817,17 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -790,12 +837,10 @@
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -805,7 +850,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -815,7 +860,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -825,7 +870,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -835,7 +880,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -845,7 +890,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -855,7 +900,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -865,7 +910,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -875,7 +920,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -883,16 +928,14 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -907,7 +950,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -917,7 +960,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -928,13 +971,16 @@
         <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -945,13 +991,16 @@
         <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -962,13 +1011,16 @@
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -979,13 +1031,16 @@
         <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -996,13 +1051,16 @@
         <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1012,9 +1070,11 @@
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1024,17 +1084,21 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1044,7 +1108,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1054,27 +1118,40 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1085,10 +1162,14 @@
       <c r="D39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Tabela pinos.xlsx
+++ b/Tabela pinos.xlsx
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -771,7 +771,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -788,7 +788,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7"/>
     </row>

--- a/Tabela pinos.xlsx
+++ b/Tabela pinos.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESP32" sheetId="1" r:id="rId1"/>
+    <sheet name="74HC595" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>Pino</t>
   </si>
@@ -140,9 +141,6 @@
     <t>temperatura</t>
   </si>
   <si>
-    <t>luz</t>
-  </si>
-  <si>
     <t>output</t>
   </si>
   <si>
@@ -167,9 +165,6 @@
     <t>motor 3</t>
   </si>
   <si>
-    <t>placa</t>
-  </si>
-  <si>
     <t>resistência casa de banho</t>
   </si>
   <si>
@@ -249,6 +244,39 @@
   </si>
   <si>
     <t>servo 1</t>
+  </si>
+  <si>
+    <t>Luz Hall</t>
+  </si>
+  <si>
+    <t>Luz Cozinha</t>
+  </si>
+  <si>
+    <t>Luz Quarto</t>
+  </si>
+  <si>
+    <t>Luz Sala de jantar</t>
+  </si>
+  <si>
+    <t>Luz Sala de estar</t>
+  </si>
+  <si>
+    <t>Candeeiro Quarto</t>
+  </si>
+  <si>
+    <t>Candeeiro Sala</t>
+  </si>
+  <si>
+    <t>placa de Peltier</t>
+  </si>
+  <si>
+    <t>Luz Casa de banho</t>
+  </si>
+  <si>
+    <t>luz - VP</t>
+  </si>
+  <si>
+    <t>luz - VN</t>
   </si>
 </sst>
 </file>
@@ -270,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +329,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,11 +372,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -684,13 +733,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -712,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -722,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -735,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -755,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -768,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -785,12 +834,12 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -800,12 +849,12 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -815,16 +864,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -835,10 +884,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -943,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -968,16 +1017,16 @@
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -988,16 +1037,16 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1028,16 +1077,16 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1048,16 +1097,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1068,10 +1117,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,10 +1141,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,16 +1175,16 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -1174,4 +1223,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tabela pinos.xlsx
+++ b/Tabela pinos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32" sheetId="1" r:id="rId1"/>
@@ -261,12 +261,6 @@
     <t>Luz Sala de estar</t>
   </si>
   <si>
-    <t>Candeeiro Quarto</t>
-  </si>
-  <si>
-    <t>Candeeiro Sala</t>
-  </si>
-  <si>
     <t>placa de Peltier</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>luz - VN</t>
+  </si>
+  <si>
+    <t>Armário Hall</t>
+  </si>
+  <si>
+    <t>Guarda-vestidos</t>
   </si>
 </sst>
 </file>
@@ -375,17 +375,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -739,7 +739,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -806,8 +806,8 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -822,7 +822,7 @@
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -839,7 +839,7 @@
       <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -854,7 +854,7 @@
       <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -866,10 +866,10 @@
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -886,8 +886,8 @@
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -995,7 +995,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -1177,10 +1177,10 @@
       <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1197,8 +1197,8 @@
       <c r="C38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,75 +1241,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>78</v>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>81</v>
+      <c r="B9" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela pinos.xlsx
+++ b/Tabela pinos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Pino</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Guarda-vestidos</t>
+  </si>
+  <si>
+    <t>lareira</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -906,8 +909,12 @@
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
